--- a/src/main/resources/templates/excel/deliveryList.xlsx
+++ b/src/main/resources/templates/excel/deliveryList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/Source/wb-partner-server/src/main/resources/templates/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chals/wrightbrothers/wb-partner-server/src/main/resources/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29E53B-854A-494E-96B3-FD3CE6557652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F214DB-6977-2941-847D-8729DA8BA97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="25780" windowWidth="28800" windowHeight="17440" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{46F75420-F5B2-8D48-85D8-0542E3B4EA91}"/>
   </bookViews>
   <sheets>
     <sheet name="주문" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>배송메모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비결제방법</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15EEE38-170B-454C-A4EF-495FF51E7B93}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -540,17 +544,18 @@
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="40.7109375" customWidth="1"/>
-    <col min="23" max="23" width="100.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="40.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" customWidth="1"/>
+    <col min="24" max="24" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -594,30 +599,33 @@
         <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
